--- a/dataset/timestamps.xlsx
+++ b/dataset/timestamps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanyamamoto/workspace2/edit_tennis/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanyamamoto/workspace2/trans/data/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A6A80B-151D-0D46-AA41-6C50235BB5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA11AA1B-5122-AD4F-8A2F-E3283723AB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="12300" windowHeight="18880" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28080" windowHeight="18880" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="491">
   <si>
     <t>start</t>
   </si>
@@ -160,171 +160,6 @@
     <t>00:00:00:00</t>
   </si>
   <si>
-    <t>01:21:05:18</t>
-  </si>
-  <si>
-    <t>01:24:14:12</t>
-  </si>
-  <si>
-    <t>01:24:27:08</t>
-  </si>
-  <si>
-    <t>01:24:36:04</t>
-  </si>
-  <si>
-    <t>01:24:47:14</t>
-  </si>
-  <si>
-    <t>01:25:13:04</t>
-  </si>
-  <si>
-    <t>01:25:17:01</t>
-  </si>
-  <si>
-    <t>01:25:25:15</t>
-  </si>
-  <si>
-    <t>01:25:38:26</t>
-  </si>
-  <si>
-    <t>01:26:20:21</t>
-  </si>
-  <si>
-    <t>01:26:24:01</t>
-  </si>
-  <si>
-    <t>01:26:30:14</t>
-  </si>
-  <si>
-    <t>01:26:41:12</t>
-  </si>
-  <si>
-    <t>01:27:15:11</t>
-  </si>
-  <si>
-    <t>01:27:18:29</t>
-  </si>
-  <si>
-    <t>01:27:22:20</t>
-  </si>
-  <si>
-    <t>01:27:33:23</t>
-  </si>
-  <si>
-    <t>01:28:03:29</t>
-  </si>
-  <si>
-    <t>01:28:06:24</t>
-  </si>
-  <si>
-    <t>01:28:17:12</t>
-  </si>
-  <si>
-    <t>01:28:22:03</t>
-  </si>
-  <si>
-    <t>01:28:48:11</t>
-  </si>
-  <si>
-    <t>01:28:52:23</t>
-  </si>
-  <si>
-    <t>01:29:03:23</t>
-  </si>
-  <si>
-    <t>01:29:12:07</t>
-  </si>
-  <si>
-    <t>01:29:38:18</t>
-  </si>
-  <si>
-    <t>01:29:48:00</t>
-  </si>
-  <si>
-    <t>01:30:11:07</t>
-  </si>
-  <si>
-    <t>01:30:16:09</t>
-  </si>
-  <si>
-    <t>01:30:42:11</t>
-  </si>
-  <si>
-    <t>01:30:49:26</t>
-  </si>
-  <si>
-    <t>01:33:27:13</t>
-  </si>
-  <si>
-    <t>01:33:30:26</t>
-  </si>
-  <si>
-    <t>01:33:39:02</t>
-  </si>
-  <si>
-    <t>01:33:45:14</t>
-  </si>
-  <si>
-    <t>01:34:12:22</t>
-  </si>
-  <si>
-    <t>01:34:18:03</t>
-  </si>
-  <si>
-    <t>01:34:32:24</t>
-  </si>
-  <si>
-    <t>01:34:42:15</t>
-  </si>
-  <si>
-    <t>01:35:12:06</t>
-  </si>
-  <si>
-    <t>01:35:14:23</t>
-  </si>
-  <si>
-    <t>01:35:30:10</t>
-  </si>
-  <si>
-    <t>01:35:36:08</t>
-  </si>
-  <si>
-    <t>01:35:58:07</t>
-  </si>
-  <si>
-    <t>01:36:06:28</t>
-  </si>
-  <si>
-    <t>01:36:34:02</t>
-  </si>
-  <si>
-    <t>01:36:38:21</t>
-  </si>
-  <si>
-    <t>01:37:02:02</t>
-  </si>
-  <si>
-    <t>01:37:06:26</t>
-  </si>
-  <si>
-    <t>01:37:21:29</t>
-  </si>
-  <si>
-    <t>01:37:35:26</t>
-  </si>
-  <si>
-    <t>01:20:46:11</t>
-  </si>
-  <si>
-    <t>01:37:51:27</t>
-  </si>
-  <si>
-    <t>01:37:14:05</t>
-  </si>
-  <si>
-    <t>01:21:15:14</t>
-  </si>
-  <si>
     <t>00:00:12:00</t>
   </si>
   <si>
@@ -1514,6 +1349,162 @@
   </si>
   <si>
     <t>00:01:03:12</t>
+  </si>
+  <si>
+    <t>00:00:19:06</t>
+  </si>
+  <si>
+    <t>00:00:29:03</t>
+  </si>
+  <si>
+    <t>00:03:40:27</t>
+  </si>
+  <si>
+    <t>00:03:49:22</t>
+  </si>
+  <si>
+    <t>00:04:01:03</t>
+  </si>
+  <si>
+    <t>00:04:26:22</t>
+  </si>
+  <si>
+    <t>00:04:30:19</t>
+  </si>
+  <si>
+    <t>00:04:39:03</t>
+  </si>
+  <si>
+    <t>00:04:52:15</t>
+  </si>
+  <si>
+    <t>00:05:34:09</t>
+  </si>
+  <si>
+    <t>00:05:37:19</t>
+  </si>
+  <si>
+    <t>00:05:44:03</t>
+  </si>
+  <si>
+    <t>00:05:55:00</t>
+  </si>
+  <si>
+    <t>00:06:29:00</t>
+  </si>
+  <si>
+    <t>00:06:32:18</t>
+  </si>
+  <si>
+    <t>00:06:36:09</t>
+  </si>
+  <si>
+    <t>00:06:47:12</t>
+  </si>
+  <si>
+    <t>00:07:17:18</t>
+  </si>
+  <si>
+    <t>00:07:20:12</t>
+  </si>
+  <si>
+    <t>00:07:31:00</t>
+  </si>
+  <si>
+    <t>00:07:35:21</t>
+  </si>
+  <si>
+    <t>00:08:02:00</t>
+  </si>
+  <si>
+    <t>00:08:06:12</t>
+  </si>
+  <si>
+    <t>00:08:17:12</t>
+  </si>
+  <si>
+    <t>00:08:25:25</t>
+  </si>
+  <si>
+    <t>00:08:52:06</t>
+  </si>
+  <si>
+    <t>00:09:01:18</t>
+  </si>
+  <si>
+    <t>00:09:24:25</t>
+  </si>
+  <si>
+    <t>00:09:56:00</t>
+  </si>
+  <si>
+    <t>00:10:03:15</t>
+  </si>
+  <si>
+    <t>00:12:41:01</t>
+  </si>
+  <si>
+    <t>00:12:44:15</t>
+  </si>
+  <si>
+    <t>00:12:52:21</t>
+  </si>
+  <si>
+    <t>00:12:59:03</t>
+  </si>
+  <si>
+    <t>00:13:26:10</t>
+  </si>
+  <si>
+    <t>00:13:31:21</t>
+  </si>
+  <si>
+    <t>00:13:46:12</t>
+  </si>
+  <si>
+    <t>00:13:56:03</t>
+  </si>
+  <si>
+    <t>00:14:25:24</t>
+  </si>
+  <si>
+    <t>00:14:28:12</t>
+  </si>
+  <si>
+    <t>00:14:43:28</t>
+  </si>
+  <si>
+    <t>00:14:49:27</t>
+  </si>
+  <si>
+    <t>00:15:11:25</t>
+  </si>
+  <si>
+    <t>00:15:20:16</t>
+  </si>
+  <si>
+    <t>00:15:47:21</t>
+  </si>
+  <si>
+    <t>00:15:52:09</t>
+  </si>
+  <si>
+    <t>00:16:15:21</t>
+  </si>
+  <si>
+    <t>00:16:20:15</t>
+  </si>
+  <si>
+    <t>00:16:27:24</t>
+  </si>
+  <si>
+    <t>00:16:35:18</t>
+  </si>
+  <si>
+    <t>00:16:49:15</t>
+  </si>
+  <si>
+    <t>00:17:05:15</t>
   </si>
 </sst>
 </file>
@@ -1541,13 +1532,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1601,7 +1593,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1915,7 +1907,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1928,7 +1920,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1944,220 +1936,220 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17">
-      <c r="A2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17">
-      <c r="A3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17">
-      <c r="A4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17">
-      <c r="A5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17">
-      <c r="A6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17">
-      <c r="A7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17">
-      <c r="A8" s="7" t="s">
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17">
-      <c r="A9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17">
-      <c r="A10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17">
-      <c r="A11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17">
-      <c r="A12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17">
-      <c r="A13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17">
-      <c r="A14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17">
-      <c r="A15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17">
-      <c r="A16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17">
-      <c r="A17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17">
-      <c r="A18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17">
-      <c r="A19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17">
-      <c r="A20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17">
-      <c r="A21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17">
-      <c r="A22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17">
-      <c r="A23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17">
-      <c r="A24" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17">
-      <c r="A25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17">
-      <c r="A26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17">
-      <c r="A27" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17">
-      <c r="A28" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>92</v>
+      <c r="B3" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16">
+      <c r="A22" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16">
+      <c r="A23" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16">
+      <c r="A24" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16">
+      <c r="A25" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16">
+      <c r="A26" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16">
+      <c r="A27" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16">
+      <c r="A28" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -2169,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2B4E02-A398-5F4E-AFB2-293A4CD4956D}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2187,220 +2179,220 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17">
-      <c r="A2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17">
-      <c r="A3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17">
-      <c r="A4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17">
-      <c r="A5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17">
-      <c r="A6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17">
-      <c r="A7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17">
-      <c r="A8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="7" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17">
-      <c r="A9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17">
-      <c r="A10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17">
-      <c r="A11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17">
-      <c r="A12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17">
-      <c r="A13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17">
-      <c r="A14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17">
-      <c r="A15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17">
-      <c r="A16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17">
-      <c r="A17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17">
-      <c r="A18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17">
-      <c r="A19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17">
-      <c r="A20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17">
-      <c r="A21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17">
-      <c r="A22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17">
-      <c r="A23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17">
-      <c r="A24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17">
-      <c r="A25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17">
-      <c r="A26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17">
-      <c r="A27" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17">
-      <c r="A28" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>94</v>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>465</v>
+      </c>
+      <c r="B16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>468</v>
+      </c>
+      <c r="B18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>470</v>
+      </c>
+      <c r="B19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>472</v>
+      </c>
+      <c r="B20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>474</v>
+      </c>
+      <c r="B21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>476</v>
+      </c>
+      <c r="B22" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>478</v>
+      </c>
+      <c r="B23" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>480</v>
+      </c>
+      <c r="B24" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>482</v>
+      </c>
+      <c r="B25" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>484</v>
+      </c>
+      <c r="B26" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>486</v>
+      </c>
+      <c r="B27" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>489</v>
+      </c>
+      <c r="B28" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -2412,7 +2404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696DFEBB-4181-F348-B545-04815A61157E}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="197" zoomScaleNormal="197" workbookViewId="0">
+    <sheetView zoomScale="197" zoomScaleNormal="197" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2428,274 +2420,274 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2726,271 +2718,271 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3003,7 +2995,7 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B59"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3017,467 +3009,467 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="7" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="7" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B4" s="8" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="7" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B6" s="8" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="7" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="7" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B8" s="8" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="7" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="7" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B10" s="8" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="7" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B11" s="8" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="7" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B12" s="8" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="7" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B13" s="8" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="7" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B14" s="8" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="7" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B15" s="8" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="7" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B16" s="8" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="7" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B17" s="8" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="7" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B18" s="8" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="7" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B19" s="8" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="7" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B20" s="8" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="7" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="B21" s="8" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="7" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B22" s="8" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="7" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B23" s="8" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="7" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="8" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="7" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B25" s="8" t="s">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="7" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B26" s="8" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="7" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="B27" s="8" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="7" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B28" s="8" t="s">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="7" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B29" s="8" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="7" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B30" s="8" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="7" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B31" s="8" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="7" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -3505,469 +3497,469 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="B9" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="B12" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
-        <v>400</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
       <c r="B14" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="B15" t="s">
-        <v>404</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
-        <v>406</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
-        <v>408</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="B18" t="s">
-        <v>410</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="B19" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="B20" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="B21" t="s">
-        <v>416</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>417</v>
+        <v>362</v>
       </c>
       <c r="B22" t="s">
-        <v>418</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>419</v>
+        <v>364</v>
       </c>
       <c r="B23" t="s">
-        <v>420</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>421</v>
+        <v>366</v>
       </c>
       <c r="B24" t="s">
-        <v>422</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="B25" t="s">
-        <v>424</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>425</v>
+        <v>370</v>
       </c>
       <c r="B26" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="B27" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="B28" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="G28" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="B29" t="s">
-        <v>432</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>433</v>
+        <v>378</v>
       </c>
       <c r="B30" t="s">
-        <v>434</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="B31" t="s">
-        <v>436</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="B32" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="B33" t="s">
-        <v>440</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="B34" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="B35" t="s">
-        <v>444</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>445</v>
+        <v>390</v>
       </c>
       <c r="B36" t="s">
-        <v>446</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="B37" t="s">
-        <v>448</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
       <c r="B38" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="B39" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="B40" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="B41" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>457</v>
+        <v>402</v>
       </c>
       <c r="B42" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="B43" t="s">
-        <v>460</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>461</v>
+        <v>406</v>
       </c>
       <c r="B44" t="s">
-        <v>462</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>463</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s">
-        <v>464</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>465</v>
+        <v>410</v>
       </c>
       <c r="B46" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="B47" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="B48" t="s">
-        <v>470</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>471</v>
+        <v>416</v>
       </c>
       <c r="B49" t="s">
-        <v>472</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>473</v>
+        <v>418</v>
       </c>
       <c r="B50" t="s">
-        <v>474</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="B52" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="B53" t="s">
-        <v>480</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="B54" t="s">
-        <v>482</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>483</v>
+        <v>428</v>
       </c>
       <c r="B55" t="s">
-        <v>484</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>485</v>
+        <v>430</v>
       </c>
       <c r="B56" t="s">
-        <v>486</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="B57" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>489</v>
+        <v>434</v>
       </c>
       <c r="B58" t="s">
-        <v>490</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="B59" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -3995,418 +3987,418 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="B19" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="B20" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="B45" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="B46" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="B47" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="B48" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="B49" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="B51" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="B52" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="B53" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4434,418 +4426,418 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
-        <v>282</v>
+      <c r="A10" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="B39" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="B46" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="B47" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="B48" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="B49" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="B50" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="B51" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="B53" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4873,418 +4865,418 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="B31" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="B32" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="B35" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="B39" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="B41" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="B43" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="B44" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="B46" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="B47" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="B48" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="B49" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="B51" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5315,415 +5307,415 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="B35" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="B36" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="B39" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="B44" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="B45" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="B46" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="B47" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="B50" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="B52" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="B53" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
